--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8C47405-E5A2-4531-BDF3-E8CE496B7D0C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BAFD1-7B80-4D6E-851B-E075057BFD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="886" activeTab="6" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="886" firstSheet="4" activeTab="9" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <sheet name="Sedan_HambaLG_stiff_r" sheetId="4" r:id="rId4"/>
     <sheet name="Sedan_Hamba_f" sheetId="12" r:id="rId5"/>
     <sheet name="Sedan_Hamba_r" sheetId="13" r:id="rId6"/>
-    <sheet name="Sedan_Hamba_LiveAxle_r" sheetId="15" r:id="rId7"/>
-    <sheet name="Bus_Makhulu_f" sheetId="7" r:id="rId8"/>
-    <sheet name="Bus_Makhulu_r" sheetId="8" r:id="rId9"/>
-    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId10"/>
-    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId11"/>
+    <sheet name="No_Spring" sheetId="15" r:id="rId7"/>
+    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId8"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId9"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId10"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId11"/>
+    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId12"/>
+    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="30">
   <si>
     <t>Units</t>
   </si>
@@ -94,37 +98,43 @@
     <t>xPreload</t>
   </si>
   <si>
-    <t>Linear_Sedan_Hamba_r</t>
+    <t>Sedan_HambaLG_Linear_A1</t>
   </si>
   <si>
-    <t>Linear_Sedan_Hamba_f</t>
+    <t>Sedan_HambaLG_Linear_A2</t>
   </si>
   <si>
-    <t>Linear_Sedan_HambaLG_stiff_r</t>
+    <t>Sedan_HambaLG_Linear_stiff_A1</t>
   </si>
   <si>
-    <t>Linear_Sedan_HambaLG_r</t>
+    <t>Sedan_Hamba_Linear_A1</t>
   </si>
   <si>
-    <t>Linear_Sedan_HambaLG_stiff_f</t>
+    <t>Sedan_Hamba_Linear_A2</t>
   </si>
   <si>
-    <t>Linear_Sedan_HambaLG_f</t>
+    <t>Bus_Makhulu_Linear_A1</t>
   </si>
   <si>
-    <t>Linear_Bus_Makhulu_f</t>
+    <t>Bus_Makhulu_Linear_A2</t>
   </si>
   <si>
-    <t>Linear_Bus_Makhulu_r</t>
+    <t>Trailer_Elula_Linear_A1</t>
   </si>
   <si>
-    <t>Linear_Trailer_Elula_f</t>
+    <t>Trailer_Thwala_Linear_A1</t>
   </si>
   <si>
-    <t>Linear_Trailer_Thwala_f</t>
+    <t>Sedan_HambaLG_Linear_stiff_A2</t>
   </si>
   <si>
-    <t>Linear_Sedan_Hamba_LiveAxle_r</t>
+    <t>No_Spring</t>
+  </si>
+  <si>
+    <t>Bus_Makhulu_Axle3_Linear_A3</t>
+  </si>
+  <si>
+    <t>Bus_Makhulu_Axle3_Linear_A2</t>
   </si>
 </sst>
 </file>
@@ -198,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -243,12 +253,67 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="52">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -877,19 +942,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -909,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -940,7 +1005,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -949,7 +1014,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -970,7 +1035,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1002,7 +1067,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +1107,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1145,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1107,7 +1172,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1122,67 +1187,67 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1192,7 +1257,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1202,7 +1267,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1212,7 +1277,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1222,7 +1287,2347 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A4:A8">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C07A9-B603-4832-87B3-F4F0D2D0838D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.53050000000000008</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A5:B8 A4">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C768E2E8-49B1-4E2D-BDAC-17E912B3DA25}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.53050000000000008</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A5:B8 A4">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-2.2000000000000006E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.5700000000000005E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.56449999999999989</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8.9399999999999966E-2</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <v>140000</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A4:A8">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-2.2000000000000006E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.59760000000000002</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.5700000000000005E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.56449999999999989</v>
+      </c>
+      <c r="H6" s="7">
+        <v>8.9399999999999966E-2</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <v>140000</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A4:A8">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D426F09-D603-4191-BF8F-1F846ECF027E}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="21">
+        <v>2.6557142857142869E-3</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.72138857142857149</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="21">
+        <v>-5.5166428571428582E-2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.7700999999999999</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.10791857142857141</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A5:B8 A4">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB79628-748B-48AE-8660-4360A012DD92}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="22">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.44059999999999999</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.72138857142857149</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="22">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.7700999999999999</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.10791857142857141</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <v>210000</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1261,31 +3666,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3E4603-A385-4F1B-89CF-AA3F044BE4F0}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1305,7 +3710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1336,7 +3741,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +3750,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -1366,799 +3771,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.59760000000000002</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8.9399999999999966E-2</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13:B14 A4:A8">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AA23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.59760000000000002</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8.9399999999999966E-2</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13:B14 A4:A8">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D426F09-D603-4191-BF8F-1F846ECF027E}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AA22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -2179,7 +3792,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2188,13 +3801,13 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="22">
         <v>0.44059999999999999</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="22">
         <v>0.72138857142857149</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -2208,7 +3821,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2217,13 +3830,13 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="22">
         <v>0.7700999999999999</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="22">
         <v>0.10791857142857141</v>
       </c>
       <c r="U6"/>
@@ -2234,7 +3847,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2246,10 +3859,10 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2261,70 +3874,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2346,7 +3959,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2368,7 +3981,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2390,7 +4003,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2437,8 +4050,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB79628-748B-48AE-8660-4360A012DD92}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B841FE-83F0-4C19-B01B-0F9C28669C6D}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2449,19 +4062,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2481,7 +4094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2512,7 +4125,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2521,7 +4134,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -2542,7 +4155,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -2574,7 +4187,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2583,14 +4196,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="22">
-        <v>-2.6557142857142869E-3</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0.72138857142857149</v>
+      <c r="F5" s="23">
+        <v>-2.2000000000000006E-3</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.59760000000000002</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="14" t="s">
@@ -2614,7 +4227,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2623,14 +4236,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="22">
-        <v>5.5166428571428582E-2</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0.10791857142857141</v>
+      <c r="F6" s="23">
+        <v>4.5700000000000005E-2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.56449999999999989</v>
+      </c>
+      <c r="H6" s="23">
+        <v>8.9399999999999966E-2</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -2652,7 +4265,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2664,7 +4277,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16">
-        <v>210000</v>
+        <v>140000</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -2679,7 +4292,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2691,70 +4304,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2764,7 +4377,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2774,7 +4387,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2784,7 +4397,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2794,7 +4407,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -2833,8 +4446,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3E4603-A385-4F1B-89CF-AA3F044BE4F0}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44121489-D11F-4FE4-835C-D7CEA13E7FEA}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -2845,19 +4458,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2877,7 +4490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2908,7 +4521,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2917,7 +4530,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -2938,7 +4551,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -2959,7 +4572,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2968,14 +4581,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="22">
-        <v>2.6557142857142869E-3</v>
-      </c>
-      <c r="G5" s="22">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H5" s="22">
-        <v>0.72138857142857149</v>
+      <c r="F5" s="23">
+        <v>2.2000000000000006E-3</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.59760000000000002</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>12</v>
@@ -2988,7 +4601,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2997,14 +4610,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="22">
-        <v>-5.5166428571428582E-2</v>
-      </c>
-      <c r="G6" s="22">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H6" s="22">
-        <v>0.10791857142857141</v>
+      <c r="F6" s="23">
+        <v>-4.5700000000000005E-2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.56449999999999989</v>
+      </c>
+      <c r="H6" s="23">
+        <v>8.9399999999999966E-2</v>
       </c>
       <c r="U6"/>
       <c r="V6"/>
@@ -3014,7 +4627,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3026,10 +4639,10 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3041,70 +4654,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -3126,7 +4739,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -3148,7 +4761,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3170,7 +4783,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3217,31 +4830,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B841FE-83F0-4C19-B01B-0F9C28669C6D}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32C537-D3E6-4C00-9A05-E96827E0CC18}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:AA23"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="B37" sqref="B37"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3261,7 +4874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3292,7 +4905,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3301,7 +4914,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -3322,7 +4935,306 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A9:B10 A4">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:B12">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -3354,7 +5266,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3363,14 +5275,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="7">
         <v>-2.2000000000000006E-3</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="7">
         <v>0.23499999999999999</v>
       </c>
-      <c r="H5" s="23">
-        <v>0.59760000000000002</v>
+      <c r="H5" s="7">
+        <v>0.73386150000000006</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="14" t="s">
@@ -3394,7 +5306,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3403,14 +5315,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="7">
         <v>4.5700000000000005E-2</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="7">
         <v>0.56449999999999989</v>
       </c>
-      <c r="H6" s="23">
-        <v>8.9399999999999966E-2</v>
+      <c r="H6" s="7">
+        <v>0.22566150000000001</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3432,7 +5344,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3459,7 +5371,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3471,70 +5383,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -3544,7 +5456,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -3554,7 +5466,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3564,7 +5476,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3574,7 +5486,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3590,390 +5502,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:B14 A4:A8">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44121489-D11F-4FE4-835C-D7CEA13E7FEA}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AA22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="23">
-        <v>2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.59760000000000002</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="23">
-        <v>-4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="23">
-        <v>8.9399999999999966E-2</v>
-      </c>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13:B14 A5:B8 A4">
     <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -3997,31 +5525,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32C537-D3E6-4C00-9A05-E96827E0CC18}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="L32" sqref="L32"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4041,7 +5569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4072,7 +5600,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4081,7 +5609,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I3"/>
       <c r="J3"/>
@@ -4102,7 +5630,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -4123,7 +5651,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -4132,14 +5660,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="24">
-        <v>0.44000000000000006</v>
-      </c>
-      <c r="H5" s="24">
-        <v>0.8</v>
+      <c r="F5" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.73650000000000015</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>12</v>
@@ -4152,7 +5680,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4161,14 +5689,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="G6" s="24">
-        <v>0.54</v>
-      </c>
-      <c r="H6" s="24">
-        <v>0.19999999999999998</v>
+      <c r="F6" s="7">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.53050000000000008</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.26040000000000008</v>
       </c>
       <c r="U6"/>
       <c r="V6"/>
@@ -4178,7 +5706,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -4190,10 +5718,10 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4205,70 +5733,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4290,7 +5818,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4312,7 +5840,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4334,7 +5862,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4358,402 +5886,6 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:B14 A5:B8 A4">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AA23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.73386150000000006</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.22566150000000001</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13:B14 A4:A8">
     <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -4775,388 +5907,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AA22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13:B14 A5:B8 A4">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4BAFD1-7B80-4D6E-851B-E075057BFD23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF09522-AE04-4423-A3A7-747CE8DEE85B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" tabRatio="886" firstSheet="4" activeTab="9" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11430" tabRatio="886" firstSheet="4" activeTab="6" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
@@ -19,13 +19,15 @@
     <sheet name="Sedan_HambaLG_stiff_r" sheetId="4" r:id="rId4"/>
     <sheet name="Sedan_Hamba_f" sheetId="12" r:id="rId5"/>
     <sheet name="Sedan_Hamba_r" sheetId="13" r:id="rId6"/>
-    <sheet name="No_Spring" sheetId="15" r:id="rId7"/>
-    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId8"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId9"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId10"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId11"/>
-    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId12"/>
-    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId13"/>
+    <sheet name="Achilles_f" sheetId="18" r:id="rId7"/>
+    <sheet name="Achilles_r" sheetId="19" r:id="rId8"/>
+    <sheet name="No_Spring" sheetId="15" r:id="rId9"/>
+    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId10"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId11"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId12"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId13"/>
+    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId14"/>
+    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="32">
   <si>
     <t>Units</t>
   </si>
@@ -135,6 +137,12 @@
   </si>
   <si>
     <t>Bus_Makhulu_Axle3_Linear_A2</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles_Linear_A1</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles_Linear_A2</t>
   </si>
 </sst>
 </file>
@@ -257,7 +265,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1303,22 +1367,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:B14 A4:A8">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1327,13 +1391,793 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>-2.2000000000000006E-3</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.73386150000000006</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4.5700000000000005E-2</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.56449999999999989</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.22566150000000001</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <v>140000</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A4:A8">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.53050000000000008</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A5:B8 A4">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C07A9-B603-4832-87B3-F4F0D2D0838D}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
@@ -1710,7 +2554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C768E2E8-49B1-4E2D-BDAC-17E912B3DA25}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2094,7 +2938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2490,7 +3334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -3247,22 +4091,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:B14 A5:B8 A4">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3643,22 +4487,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:B14 A4:A8">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4027,22 +4871,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:B14 A5:B8 A4">
-    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4423,22 +5267,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:B14 A4:A8">
-    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,6 +5651,800 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A13:B14 A5:B8 A4">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07675E27-4F23-45DF-B815-2A58E614CCF5}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="23">
+        <v>-0.18698999999999999</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H5" s="23">
+        <v>8.6370000000000002E-2</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="23">
+        <v>-1.342E-2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="H6" s="23">
+        <v>8.8069999999999996E-2</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <f>43.78*1000</f>
+        <v>43780</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A4:A8">
+    <cfRule type="cellIs" dxfId="35" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:B16">
+    <cfRule type="cellIs" dxfId="34" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6819F1-CEED-4A60-B116-BA176ED148CB}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
+      <c r="R3"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Y3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="23">
+        <v>0.22999</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0.15606999999999999</v>
+      </c>
+      <c r="I5"/>
+      <c r="J5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="23">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.26723000000000002</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.16078999999999999</v>
+      </c>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16">
+        <f>30.65*1000</f>
+        <v>30650</v>
+      </c>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A13:B14 A4:A8">
     <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
@@ -4830,7 +6468,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32C537-D3E6-4C00-9A05-E96827E0CC18}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -5127,784 +6765,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AA23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4"/>
-      <c r="J4"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.73386150000000006</v>
-      </c>
-      <c r="I5"/>
-      <c r="J5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.22566150000000001</v>
-      </c>
-      <c r="I6"/>
-      <c r="J6"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-      <c r="I7"/>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13:B14 A4:A8">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:AA22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
-      <c r="R2"/>
-      <c r="S2"/>
-      <c r="T2"/>
-      <c r="U2"/>
-      <c r="V2"/>
-      <c r="W2"/>
-      <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2"/>
-      <c r="AA2"/>
-    </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-    </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-    </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-    </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-    </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="17"/>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A13:B14 A5:B8 A4">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15:B16">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF09522-AE04-4423-A3A7-747CE8DEE85B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D760BBB0-5C12-41B7-93B1-78967F767E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11430" tabRatio="886" firstSheet="4" activeTab="6" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="4224" yWindow="1128" windowWidth="16860" windowHeight="11508" tabRatio="886" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
@@ -1001,24 +1001,24 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1038,7 +1038,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1099,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1131,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1171,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1209,7 +1209,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1236,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1251,67 +1251,67 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1321,7 +1321,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1331,7 +1331,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1341,7 +1341,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1351,7 +1351,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1405,16 +1405,16 @@
       <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1434,7 +1434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1495,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +1527,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1567,7 +1567,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1605,7 +1605,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1647,67 +1647,67 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1717,7 +1717,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1727,7 +1727,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1737,7 +1737,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1747,7 +1747,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1801,16 +1801,16 @@
       <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1830,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1861,7 +1861,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +1891,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1912,7 +1912,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1941,7 +1941,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1997,67 +1997,67 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2079,7 +2079,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2101,7 +2101,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2123,7 +2123,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2185,16 +2185,16 @@
       <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2214,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2245,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2275,7 +2275,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2296,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2325,7 +2325,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2381,67 +2381,67 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2463,7 +2463,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2485,7 +2485,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2507,7 +2507,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2569,16 +2569,16 @@
       <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2598,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2709,7 +2709,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2735,7 +2735,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2765,67 +2765,67 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2847,7 +2847,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2869,7 +2869,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2891,7 +2891,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2953,16 +2953,16 @@
       <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2982,7 +2982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3043,7 +3043,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3115,7 +3115,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3195,67 +3195,67 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -3265,7 +3265,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -3275,7 +3275,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3285,7 +3285,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3295,7 +3295,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3349,16 +3349,16 @@
       <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3378,7 +3378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +3409,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3439,7 +3439,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -3471,7 +3471,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3549,7 +3549,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3591,67 +3591,67 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -3661,7 +3661,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -3671,7 +3671,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3681,7 +3681,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3691,7 +3691,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3745,16 +3745,16 @@
       <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3774,7 +3774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3805,7 +3805,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3835,7 +3835,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3941,67 +3941,67 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4023,7 +4023,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4045,7 +4045,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4067,7 +4067,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4129,16 +4129,16 @@
       <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4158,7 +4158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -4251,7 +4251,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -4291,7 +4291,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4371,67 +4371,67 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4441,7 +4441,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4451,7 +4451,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4461,7 +4461,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4471,7 +4471,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -4525,16 +4525,16 @@
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4554,7 +4554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -4636,7 +4636,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4721,67 +4721,67 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4803,7 +4803,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4825,7 +4825,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4847,7 +4847,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4909,16 +4909,16 @@
       <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4938,7 +4938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4969,7 +4969,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -5071,7 +5071,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5151,67 +5151,67 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -5221,7 +5221,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -5231,7 +5231,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -5241,7 +5241,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -5251,7 +5251,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -5305,16 +5305,16 @@
       <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -5334,7 +5334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5395,7 +5395,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -5416,7 +5416,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5471,7 +5471,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5501,67 +5501,67 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -5583,7 +5583,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -5605,7 +5605,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -5627,7 +5627,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -5681,7 +5681,7 @@
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
@@ -5689,16 +5689,16 @@
       <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -5718,7 +5718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -5811,7 +5811,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -5851,7 +5851,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -5917,7 +5917,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5932,67 +5932,67 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -6002,7 +6002,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -6012,7 +6012,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -6022,7 +6022,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6032,7 +6032,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -6083,19 +6083,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -6115,7 +6115,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -6146,7 +6146,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -6176,7 +6176,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -6208,7 +6208,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -6248,7 +6248,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -6286,7 +6286,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -6329,67 +6329,67 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -6399,7 +6399,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -6409,7 +6409,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -6419,7 +6419,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6429,7 +6429,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -6483,16 +6483,16 @@
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -6512,7 +6512,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -6543,7 +6543,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -6573,7 +6573,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -6594,67 +6594,67 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6676,7 +6676,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6698,7 +6698,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6720,7 +6720,7 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18"/>
       <c r="C18"/>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D760BBB0-5C12-41B7-93B1-78967F767E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021F3098-0D06-4CD2-95B1-A7F86BFDD350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4224" yWindow="1128" windowWidth="16860" windowHeight="11508" tabRatio="886" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="15165" yWindow="705" windowWidth="10935" windowHeight="11955" tabRatio="948" firstSheet="11" activeTab="11" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
@@ -216,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -258,9 +258,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -988,7 +987,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -997,28 +996,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{164CBD77-9933-4E3C-BCD0-0B1CA8925DBF}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1038,7 +1037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1068,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1098,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1131,7 +1130,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1143,11 +1142,11 @@
       <c r="F5" s="21">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="21">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0.72138857142857149</v>
+      <c r="G5" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.65</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="14" t="s">
@@ -1171,7 +1170,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1183,11 +1182,11 @@
       <c r="F6" s="21">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="21">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0.10791857142857141</v>
+      <c r="G6" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.19</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1209,7 +1208,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1236,7 +1235,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1248,70 +1247,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1321,7 +1320,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1331,7 +1330,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1341,7 +1340,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1351,7 +1350,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1393,7 +1392,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
@@ -1402,19 +1401,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1434,7 +1433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1465,7 +1464,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1495,7 +1494,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1527,7 +1526,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1536,14 +1535,15 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.73386150000000006</v>
+      <c r="F5" s="22">
+        <f>-0.0022+0.02</f>
+        <v>1.78E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.73380000000000001</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="14" t="s">
@@ -1567,7 +1567,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1576,14 +1576,15 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.22566150000000001</v>
+      <c r="F6" s="22">
+        <f>0.0457+0.02</f>
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.74</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.28999999999999998</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -1605,7 +1606,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1632,7 +1633,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1647,67 +1648,67 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -1717,7 +1718,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -1727,7 +1728,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -1737,7 +1738,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -1747,7 +1748,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -1789,7 +1790,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
@@ -1798,19 +1799,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1830,7 +1831,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1861,7 +1862,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1891,7 +1892,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1912,7 +1913,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -1921,13 +1922,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="22">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="22">
         <v>0.73650000000000015</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -1941,7 +1943,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -1950,13 +1952,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="F6" s="22">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="22">
         <v>0.26040000000000008</v>
       </c>
       <c r="U6"/>
@@ -1967,7 +1970,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -1997,67 +2000,67 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2079,7 +2082,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2101,7 +2104,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2123,7 +2126,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2173,28 +2176,28 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C07A9-B603-4832-87B3-F4F0D2D0838D}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2214,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2248,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2275,7 +2278,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -2296,7 +2299,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2305,13 +2308,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="22">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="22">
         <v>0.73650000000000015</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -2325,7 +2329,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2334,13 +2338,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="F6" s="22">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="22">
         <v>0.26040000000000008</v>
       </c>
       <c r="U6"/>
@@ -2351,7 +2356,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2366,7 +2371,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2381,67 +2386,67 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2463,7 +2468,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2485,7 +2490,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2507,7 +2512,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2557,7 +2562,7 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C768E2E8-49B1-4E2D-BDAC-17E912B3DA25}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
@@ -2566,19 +2571,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
+      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2598,7 +2603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -2629,7 +2634,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -2659,7 +2664,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2685,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -2689,13 +2694,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="22">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="22">
         <v>0.73650000000000015</v>
       </c>
       <c r="J5" s="14" t="s">
@@ -2709,7 +2715,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -2718,13 +2724,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.53050000000000008</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="F6" s="22">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="22">
         <v>0.26040000000000008</v>
       </c>
       <c r="U6"/>
@@ -2735,7 +2742,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -2750,7 +2757,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -2765,67 +2772,67 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2847,7 +2854,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -2869,7 +2876,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2891,7 +2898,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2941,7 +2948,7 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
@@ -2950,19 +2957,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -2982,7 +2989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3013,7 +3020,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3043,7 +3050,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3082,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3084,14 +3091,15 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.59760000000000002</v>
+      <c r="F5" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="22">
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="14" t="s">
@@ -3115,7 +3123,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3124,14 +3132,15 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8.9399999999999966E-2</v>
+      <c r="F6" s="22">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="22">
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3153,7 +3162,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3180,7 +3189,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3195,67 +3204,67 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -3265,7 +3274,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -3275,7 +3284,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3285,7 +3294,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3295,7 +3304,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3337,7 +3346,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
@@ -3346,19 +3355,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3378,7 +3387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3409,7 +3418,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3439,7 +3448,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -3471,7 +3480,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3480,14 +3489,15 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="7">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.59760000000000002</v>
+      <c r="F5" s="22">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="22">
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="14" t="s">
@@ -3511,7 +3521,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3520,14 +3530,15 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="7">
-        <v>8.9399999999999966E-2</v>
+      <c r="F6" s="22">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="22">
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -3549,7 +3560,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3576,7 +3587,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3588,70 +3599,71 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <f>0.05-0.0449</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -3661,7 +3673,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -3671,7 +3683,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -3681,7 +3693,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -3691,7 +3703,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -3733,7 +3745,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D426F09-D603-4191-BF8F-1F846ECF027E}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
@@ -3742,19 +3754,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5:H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -3774,7 +3786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -3805,7 +3817,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -3835,7 +3847,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -3856,7 +3868,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -3865,14 +3877,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="22">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="21">
-        <v>0.44059999999999999</v>
-      </c>
-      <c r="H5" s="21">
-        <v>0.72138857142857149</v>
+      <c r="G5" s="22">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.65</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>12</v>
@@ -3885,7 +3897,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -3894,14 +3906,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="22">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="21">
-        <v>0.7700999999999999</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0.10791857142857141</v>
+      <c r="G6" s="22">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.19</v>
       </c>
       <c r="U6"/>
       <c r="V6"/>
@@ -3911,7 +3923,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3926,7 +3938,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -3938,70 +3950,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>6.2600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4023,7 +4035,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4045,7 +4057,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4067,7 +4079,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4117,7 +4129,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB79628-748B-48AE-8660-4360A012DD92}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
@@ -4126,19 +4138,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4158,7 +4170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4189,7 +4201,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4219,7 +4231,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -4251,7 +4263,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -4260,14 +4272,14 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="21">
         <v>-2.6557142857142869E-3</v>
       </c>
       <c r="G5" s="22">
-        <v>0.44059999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="H5" s="22">
-        <v>0.72138857142857149</v>
+        <v>0.65</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="14" t="s">
@@ -4291,7 +4303,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4300,14 +4312,14 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>5.5166428571428582E-2</v>
       </c>
       <c r="G6" s="22">
-        <v>0.7700999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H6" s="22">
-        <v>0.10791857142857141</v>
+        <v>0.19</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -4329,7 +4341,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -4356,7 +4368,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4368,70 +4380,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>5.6899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4441,7 +4453,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4451,7 +4463,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4461,7 +4473,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4471,7 +4483,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -4513,7 +4525,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3E4603-A385-4F1B-89CF-AA3F044BE4F0}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
@@ -4522,19 +4534,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4554,7 +4566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4585,7 +4597,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4615,7 +4627,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -4636,7 +4648,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -4649,10 +4661,10 @@
         <v>2.6557142857142869E-3</v>
       </c>
       <c r="G5" s="22">
-        <v>0.44059999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="H5" s="22">
-        <v>0.72138857142857149</v>
+        <v>0.65</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>12</v>
@@ -4665,7 +4677,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -4678,10 +4690,10 @@
         <v>-5.5166428571428582E-2</v>
       </c>
       <c r="G6" s="22">
-        <v>0.7700999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="H6" s="22">
-        <v>0.10791857142857141</v>
+        <v>0.19</v>
       </c>
       <c r="U6"/>
       <c r="V6"/>
@@ -4691,7 +4703,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -4706,7 +4718,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -4718,70 +4730,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.10440000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -4803,7 +4815,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -4825,7 +4837,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -4847,7 +4859,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -4897,7 +4909,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B841FE-83F0-4C19-B01B-0F9C28669C6D}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA23"/>
   <sheetViews>
@@ -4906,19 +4918,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -4938,7 +4950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -4969,7 +4981,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -4999,7 +5011,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -5031,7 +5043,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -5040,14 +5052,15 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="23">
-        <v>-2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.59760000000000002</v>
+      <c r="F5" s="21">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.52585999999999999</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="14" t="s">
@@ -5071,7 +5084,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5080,14 +5093,15 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23">
-        <v>4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="23">
-        <v>8.9399999999999966E-2</v>
+      <c r="F6" s="21">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.15</v>
       </c>
       <c r="I6"/>
       <c r="J6"/>
@@ -5109,7 +5123,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -5121,7 +5135,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16">
-        <v>140000</v>
+        <v>52000</v>
       </c>
       <c r="I7"/>
       <c r="J7"/>
@@ -5136,7 +5150,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5148,70 +5162,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>0.10768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -5221,7 +5235,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -5231,7 +5245,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -5241,7 +5255,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -5251,7 +5265,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -5293,7 +5307,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44121489-D11F-4FE4-835C-D7CEA13E7FEA}">
   <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
@@ -5302,19 +5316,19 @@
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -5334,7 +5348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -5365,7 +5379,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5395,7 +5409,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -5416,7 +5430,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -5425,14 +5439,15 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="23">
-        <v>2.2000000000000006E-3</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.23499999999999999</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.59760000000000002</v>
+      <c r="F5" s="22">
+        <f>-0.01387-0.04</f>
+        <v>-5.3870000000000001E-2</v>
+      </c>
+      <c r="G5" s="22">
+        <v>0.49195</v>
+      </c>
+      <c r="H5" s="22">
+        <v>0.52285999999999999</v>
       </c>
       <c r="J5" s="14" t="s">
         <v>12</v>
@@ -5445,7 +5460,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5454,14 +5469,15 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23">
-        <v>-4.5700000000000005E-2</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.56449999999999989</v>
-      </c>
-      <c r="H6" s="23">
-        <v>8.9399999999999966E-2</v>
+      <c r="F6" s="22">
+        <f>-0.013587-0.04</f>
+        <v>-5.3587000000000003E-2</v>
+      </c>
+      <c r="G6" s="22">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H6" s="22">
+        <v>0.15</v>
       </c>
       <c r="U6"/>
       <c r="V6"/>
@@ -5471,7 +5487,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -5483,10 +5499,10 @@
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5498,70 +5514,70 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="7">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+        <v>8.2799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -5583,7 +5599,7 @@
       <c r="S19"/>
       <c r="T19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -5605,7 +5621,7 @@
       <c r="S20"/>
       <c r="T20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -5627,7 +5643,7 @@
       <c r="S21"/>
       <c r="T21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -5689,16 +5705,16 @@
       <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -5718,7 +5734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -5749,7 +5765,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -5779,7 +5795,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -5811,7 +5827,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -5820,13 +5836,13 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>-0.18698999999999999</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>0.13600000000000001</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="21">
         <v>8.6370000000000002E-2</v>
       </c>
       <c r="I5"/>
@@ -5851,7 +5867,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -5860,13 +5876,13 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>-1.342E-2</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>0.15826999999999999</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <v>8.8069999999999996E-2</v>
       </c>
       <c r="I6"/>
@@ -5889,7 +5905,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -5917,7 +5933,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -5932,67 +5948,67 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -6002,7 +6018,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -6012,7 +6028,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -6022,7 +6038,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6032,7 +6048,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -6086,16 +6102,16 @@
       <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -6115,7 +6131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -6146,7 +6162,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -6176,7 +6192,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -6208,7 +6224,7 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>10</v>
       </c>
@@ -6217,13 +6233,13 @@
       <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>0.22999</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>0.22700000000000001</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="21">
         <v>0.15606999999999999</v>
       </c>
       <c r="I5"/>
@@ -6248,7 +6264,7 @@
       <c r="Z5"/>
       <c r="AA5"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
@@ -6257,13 +6273,13 @@
       <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>5.9749999999999998E-2</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <v>0.26723000000000002</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <v>0.16078999999999999</v>
       </c>
       <c r="I6"/>
@@ -6286,7 +6302,7 @@
       <c r="Z6"/>
       <c r="AA6"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -6314,7 +6330,7 @@
       <c r="S7"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
@@ -6329,67 +6345,67 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -6399,7 +6415,7 @@
       <c r="G19"/>
       <c r="H19"/>
     </row>
-    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -6409,7 +6425,7 @@
       <c r="G20"/>
       <c r="H20"/>
     </row>
-    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -6419,7 +6435,7 @@
       <c r="G21"/>
       <c r="H21"/>
     </row>
-    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -6429,7 +6445,7 @@
       <c r="G22"/>
       <c r="H22"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
@@ -6483,16 +6499,16 @@
       <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -6512,7 +6528,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -6543,7 +6559,7 @@
       <c r="Z2"/>
       <c r="AA2"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -6573,7 +6589,7 @@
       <c r="Z3"/>
       <c r="AA3"/>
     </row>
-    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -6594,67 +6610,67 @@
       <c r="Z4"/>
       <c r="AA4"/>
     </row>
-    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -6676,7 +6692,7 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -6698,7 +6714,7 @@
       <c r="S16"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -6720,7 +6736,7 @@
       <c r="S17"/>
       <c r="T17"/>
     </row>
-    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18"/>
       <c r="C18"/>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032B3878-EB24-4529-B004-E80DAF0F0873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204D6D0-585B-4ECA-A7DE-B52081661226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="948" firstSheet="5" activeTab="8" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" tabRatio="948" firstSheet="3" activeTab="3" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
@@ -3174,12 +3174,12 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>
       <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,7 +3318,7 @@
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
-        <v>0.10440000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -4275,7 +4275,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="O21" sqref="O21"/>
       <selection pane="topRight" activeCell="O21" sqref="O21"/>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -1,35 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C204D6D0-585B-4ECA-A7DE-B52081661226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8695769B-88B4-490D-86DB-3CCF43F46560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" tabRatio="948" firstSheet="3" activeTab="3" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="948" firstSheet="10" activeTab="14" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
     <sheet name="Sedan_HambaLG_r" sheetId="14" r:id="rId2"/>
     <sheet name="Sedan_HambaLG_stiff_f" sheetId="2" r:id="rId3"/>
     <sheet name="Sedan_HambaLG_stiff_r" sheetId="4" r:id="rId4"/>
-    <sheet name="Sedan_Hamba_f" sheetId="12" r:id="rId5"/>
-    <sheet name="Sedan_Hamba_r" sheetId="13" r:id="rId6"/>
-    <sheet name="Achilles_f" sheetId="18" r:id="rId7"/>
-    <sheet name="Achilles_r" sheetId="19" r:id="rId8"/>
-    <sheet name="Achilles_DW_f" sheetId="20" r:id="rId9"/>
-    <sheet name="Achilles_DW_r" sheetId="21" r:id="rId10"/>
-    <sheet name="No_Spring" sheetId="15" r:id="rId11"/>
-    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId12"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId13"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId14"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId15"/>
-    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId16"/>
-    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId17"/>
+    <sheet name="Sedan_HambaLG_Mac_f" sheetId="25" r:id="rId5"/>
+    <sheet name="Sedan_Hamba_f" sheetId="12" r:id="rId6"/>
+    <sheet name="Sedan_Hamba_r" sheetId="13" r:id="rId7"/>
+    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="22" r:id="rId8"/>
+    <sheet name="Achilles_f" sheetId="18" r:id="rId9"/>
+    <sheet name="Achilles_r" sheetId="19" r:id="rId10"/>
+    <sheet name="AchillesPush_f" sheetId="23" r:id="rId11"/>
+    <sheet name="AchillesPush_r" sheetId="24" r:id="rId12"/>
+    <sheet name="Achilles_DW_f" sheetId="20" r:id="rId13"/>
+    <sheet name="Achilles_DW_r" sheetId="21" r:id="rId14"/>
+    <sheet name="No_Spring" sheetId="15" r:id="rId15"/>
+    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId16"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId17"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId18"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId19"/>
+    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId20"/>
+    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="41">
   <si>
     <t>Units</t>
   </si>
@@ -85,9 +89,6 @@
   </si>
   <si>
     <t>m</t>
-  </si>
-  <si>
-    <t>Also in Linkage</t>
   </si>
   <si>
     <t>sBottom</t>
@@ -151,6 +152,30 @@
   </si>
   <si>
     <t>FSAE_Achilles_DW_Linear_A1</t>
+  </si>
+  <si>
+    <t>Sedan_Hamba_TwistBeam_Linear_A2</t>
+  </si>
+  <si>
+    <t>Must be consistent with values in Linkage</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles_Push_Linear_A2</t>
+  </si>
+  <si>
+    <t>FSAE_Achilles_Push_Linear_A1</t>
+  </si>
+  <si>
+    <t>Sedan_HambaLG_Mac_Linear_A1</t>
+  </si>
+  <si>
+    <t>fPreload</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Set either xPreload or fPreload to a nonzero value</t>
   </si>
 </sst>
 </file>
@@ -224,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -262,12 +287,209 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="62">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -823,10 +1045,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="U14" sqref="U14"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +1057,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -880,7 +1104,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -906,46 +1130,55 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="19">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="19">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.85</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.19</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -955,23 +1188,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -1019,13 +1266,18 @@
       <c r="H18" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1034,6 +1286,1007 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6819F1-CEED-4A60-B116-BA176ED148CB}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.22999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.15606999999999999</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.26723000000000002</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.16078999999999999</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <f>30.65*1000</f>
+        <v>30650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F153D3AE-46C7-4F34-AC73-2C191830CCFC}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.17019999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-1.342E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <f>43.78*1000</f>
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A666DF0F-6AE0-4055-9B98-97F7038D423B}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.22999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5.9749999999999998E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.26723000000000002</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.4</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <f>30.65*1000</f>
+        <v>30650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF275A-B12B-4AB2-BD05-ACD618B3C10D}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.22</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-0.03</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <f>43.78*10000/2/2/2/2</f>
+        <v>27362.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <f>0.01*2*2*2*2.2</f>
+        <v>0.17600000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0AF0D6-3E7E-4BDA-8817-856CC0C9A380}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -1042,10 +2295,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="G24" sqref="G24"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,7 +2307,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1099,7 +2354,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1125,7 +2380,10 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <v>0.12</v>
       </c>
       <c r="G5" s="19">
@@ -1135,19 +2393,22 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <v>0.12</v>
       </c>
       <c r="G6" s="19">
@@ -1156,15 +2417,18 @@
       <c r="H6" s="19">
         <v>0.1</v>
       </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1175,14 +2439,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <f>0.01*2*2*1.5</f>
@@ -1190,9 +2456,21 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -1240,13 +2518,18 @@
       <c r="H18" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1254,19 +2537,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32C537-D3E6-4C00-9A05-E96827E0CC18}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,7 +2558,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1320,7 +2605,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1334,7 +2619,7 @@
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1389,12 +2674,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A9:B12">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1402,7 +2687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1411,10 +2696,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,7 +2708,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1468,7 +2755,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1494,48 +2781,57 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <f>-0.0022+0.02</f>
         <v>1.78E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.68</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.73380000000000001</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <f>0.0457+0.02</f>
         <v>6.5699999999999995E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.74</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.28999999999999998</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1545,23 +2841,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -1609,13 +2919,18 @@
       <c r="H18" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1623,7 +2938,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1632,10 +2947,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +2959,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1689,7 +3006,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1715,48 +3032,57 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.73650000000000015</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <f>-0.0013-0.05</f>
         <v>-5.1300000000000005E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.68</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.26040000000000008</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1766,23 +3092,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>0.11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -1831,12 +3171,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1844,7 +3189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C07A9-B603-4832-87B3-F4F0D2D0838D}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1853,10 +3198,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,7 +3210,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1910,7 +3257,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1936,48 +3283,57 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.73650000000000015</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <f>-0.0013-0.05</f>
         <v>-5.1300000000000005E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.68</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.26040000000000008</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1987,23 +3343,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -2052,12 +3422,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2065,7 +3440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C768E2E8-49B1-4E2D-BDAC-17E912B3DA25}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2074,10 +3449,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="B26" sqref="B26"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +3461,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2131,7 +3508,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2157,48 +3534,57 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <f>-0.07</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.73650000000000015</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <f>-0.0013-0.05</f>
         <v>-5.1300000000000005E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.68</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.26040000000000008</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -2208,23 +3594,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -2273,455 +3673,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="H5" s="6">
-        <f>0.5504-0.08-0.08</f>
-        <v>0.39039999999999997</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="H6" s="6">
-        <f>0.1552+0.08-0.07</f>
-        <v>0.16520000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:H6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.51</v>
-      </c>
-      <c r="H5" s="6">
-        <f>0.5504-0.08-0.08</f>
-        <v>0.39039999999999997</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="6">
-        <v>-1.2999999999999999E-3</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.68</v>
-      </c>
-      <c r="H6" s="6">
-        <f>0.1552+0.08-0.07</f>
-        <v>0.16520000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <f>0.05-0.0449</f>
-        <v>5.1000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2738,10 +3700,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5:H6"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,7 +3712,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2795,7 +3759,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -2821,46 +3785,55 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.85</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.19</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -2870,23 +3843,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>6.2600000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -2935,12 +3922,520 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="20">
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="20">
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.51</v>
+      </c>
+      <c r="H5" s="20">
+        <f>0.5504-0.08-0.08</f>
+        <v>0.39039999999999997</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="20">
+        <f>0.1552+0.08-0.07</f>
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <f>0.05-0.0449</f>
+        <v>5.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2957,10 +4452,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2969,7 +4464,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3014,7 +4511,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3040,46 +4537,55 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="19">
         <v>-2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="19">
         <v>5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.85</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.19</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -3089,23 +4595,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>5.6899999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -3153,13 +4673,18 @@
       <c r="H18" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3174,12 +4699,12 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3188,7 +4713,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3233,7 +4760,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3259,46 +4786,55 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <v>2.6557142857142869E-3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.62</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <v>-5.5166428571428582E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.85</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.19</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -3308,23 +4844,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -3373,12 +4923,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3387,6 +4942,255 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C9EEF2C-DE51-4DD3-90EB-61EE5BC0295A}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.79</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.81</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.45</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B841FE-83F0-4C19-B01B-0F9C28669C6D}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
@@ -3395,10 +5199,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="G26" sqref="G26"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3407,7 +5211,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3452,7 +5258,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3478,6 +5284,9 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="19">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
@@ -3489,18 +5298,21 @@
         <v>0.52585999999999999</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="19">
         <f>-0.000217+0.05</f>
         <v>4.9783000000000001E-2</v>
@@ -3511,15 +5323,18 @@
       <c r="H6" s="19">
         <v>0.15</v>
       </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -3529,23 +5344,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>0.10768</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -3593,13 +5422,18 @@
       <c r="H18" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="24" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3607,7 +5441,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44121489-D11F-4FE4-835C-D7CEA13E7FEA}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3616,10 +5450,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3628,7 +5462,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3673,7 +5509,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3699,48 +5535,57 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
         <f>-0.01387-0.04</f>
         <v>-5.3870000000000001E-2</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="20">
         <v>0.49195</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="20">
         <v>0.52285999999999999</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="6">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
         <f>-0.013587-0.04</f>
         <v>-5.3587000000000003E-2</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="20">
         <v>0.71599999999999997</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="20">
         <v>0.15</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -3750,23 +5595,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>8.2799999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -3815,12 +5674,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3828,7 +5692,256 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87769F25-0D9B-4A5D-A483-AACA58CC7443}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>8.2799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07675E27-4F23-45DF-B815-2A58E614CCF5}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -3837,10 +5950,10 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3849,7 +5962,9 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3894,7 +6009,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -3920,6 +6035,9 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
       <c r="F5" s="19">
         <v>-0.18698999999999999</v>
       </c>
@@ -3930,18 +6048,21 @@
         <v>8.6370000000000002E-2</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="19">
         <v>-1.342E-2</v>
       </c>
@@ -3951,15 +6072,18 @@
       <c r="H6" s="19">
         <v>8.8069999999999996E-2</v>
       </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -3970,23 +6094,37 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>0.01</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F10" s="6"/>
@@ -4034,454 +6172,18 @@
       <c r="H18" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6819F1-CEED-4A60-B116-BA176ED148CB}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.22999</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.22700000000000001</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0.15606999999999999</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="19">
-        <v>5.9749999999999998E-2</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.26723000000000002</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.16078999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <f>30.65*1000</f>
-        <v>30650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF275A-B12B-4AB2-BD05-ACD618B3C10D}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="O21" sqref="O21"/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="19">
-        <v>-0.03</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.22</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="19">
-        <v>-0.03</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <f>43.78*10000/2/2/2/2</f>
-        <v>27362.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <f>0.01*2*2*2*2.2</f>
-        <v>0.17600000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4:A8 A13:B16">
-    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8695769B-88B4-490D-86DB-3CCF43F46560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAA0CE-D84F-4ADA-AE74-3B4F789E783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="948" firstSheet="10" activeTab="14" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="23130" windowHeight="12540" tabRatio="948" activeTab="5" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
@@ -18,22 +18,23 @@
     <sheet name="Sedan_HambaLG_stiff_f" sheetId="2" r:id="rId3"/>
     <sheet name="Sedan_HambaLG_stiff_r" sheetId="4" r:id="rId4"/>
     <sheet name="Sedan_HambaLG_Mac_f" sheetId="25" r:id="rId5"/>
-    <sheet name="Sedan_Hamba_f" sheetId="12" r:id="rId6"/>
-    <sheet name="Sedan_Hamba_r" sheetId="13" r:id="rId7"/>
-    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="22" r:id="rId8"/>
-    <sheet name="Achilles_f" sheetId="18" r:id="rId9"/>
-    <sheet name="Achilles_r" sheetId="19" r:id="rId10"/>
-    <sheet name="AchillesPush_f" sheetId="23" r:id="rId11"/>
-    <sheet name="AchillesPush_r" sheetId="24" r:id="rId12"/>
-    <sheet name="Achilles_DW_f" sheetId="20" r:id="rId13"/>
-    <sheet name="Achilles_DW_r" sheetId="21" r:id="rId14"/>
-    <sheet name="No_Spring" sheetId="15" r:id="rId15"/>
-    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId16"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId17"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId18"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId19"/>
-    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId20"/>
-    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId21"/>
+    <sheet name="Sedan_Hamba_Mac_f" sheetId="26" r:id="rId6"/>
+    <sheet name="Sedan_Hamba_f" sheetId="12" r:id="rId7"/>
+    <sheet name="Sedan_Hamba_r" sheetId="13" r:id="rId8"/>
+    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="22" r:id="rId9"/>
+    <sheet name="Achilles_f" sheetId="18" r:id="rId10"/>
+    <sheet name="Achilles_r" sheetId="19" r:id="rId11"/>
+    <sheet name="AchillesPush_f" sheetId="23" r:id="rId12"/>
+    <sheet name="AchillesPush_r" sheetId="24" r:id="rId13"/>
+    <sheet name="Achilles_DW_f" sheetId="20" r:id="rId14"/>
+    <sheet name="Achilles_DW_r" sheetId="21" r:id="rId15"/>
+    <sheet name="No_Spring" sheetId="15" r:id="rId16"/>
+    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId17"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId18"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId19"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId20"/>
+    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId21"/>
+    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="42">
   <si>
     <t>Units</t>
   </si>
@@ -177,6 +178,9 @@
   <si>
     <t>Set either xPreload or fPreload to a nonzero value</t>
   </si>
+  <si>
+    <t>Sedan_Hamba_Mac_Linear_A1</t>
+  </si>
 </sst>
 </file>
 
@@ -293,7 +297,28 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="65">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1267,17 +1292,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1286,6 +1311,256 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07675E27-4F23-45DF-B815-2A58E614CCF5}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <v>-0.18698999999999999</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="H5" s="19">
+        <v>8.6370000000000002E-2</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <v>-1.342E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.15826999999999999</v>
+      </c>
+      <c r="H6" s="19">
+        <v>8.8069999999999996E-2</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <f>43.78*1000</f>
+        <v>43780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6819F1-CEED-4A60-B116-BA176ED148CB}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -1517,17 +1792,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1535,7 +1810,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F153D3AE-46C7-4F34-AC73-2C191830CCFC}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -1767,17 +2042,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1785,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A666DF0F-6AE0-4055-9B98-97F7038D423B}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2017,17 +2292,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2035,7 +2310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF275A-B12B-4AB2-BD05-ACD618B3C10D}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2268,17 +2543,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2286,7 +2561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0AF0D6-3E7E-4BDA-8817-856CC0C9A380}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2519,17 +2794,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2537,14 +2812,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32C537-D3E6-4C00-9A05-E96827E0CC18}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F16" sqref="F16"/>
       <selection pane="topRight" activeCell="F16" sqref="F16"/>
@@ -2674,12 +2949,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A9:B12">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2687,7 +2962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -2920,17 +3195,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2938,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3171,17 +3446,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3189,7 +3464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C07A9-B603-4832-87B3-F4F0D2D0838D}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3422,268 +3697,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C768E2E8-49B1-4E2D-BDAC-17E912B3DA25}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F14" sqref="F14"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="20">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.62</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="20">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.68</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <v>5.5E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3922,17 +3946,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3941,6 +3965,257 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C768E2E8-49B1-4E2D-BDAC-17E912B3DA25}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4173,17 +4448,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4191,7 +4466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4425,17 +4700,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4674,17 +4949,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="53" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4923,17 +5198,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5172,17 +5447,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5191,18 +5466,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B841FE-83F0-4C19-B01B-0F9C28669C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFCA9792-2BEE-4A7C-AEC9-9A3377E31C5C}">
   <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F14" sqref="F14"/>
       <selection pane="topRight" activeCell="F14" sqref="F14"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5258,7 +5533,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -5292,10 +5567,10 @@
         <v>4.9783000000000001E-2</v>
       </c>
       <c r="G5" s="19">
-        <v>0.49198500000000001</v>
+        <v>0.65</v>
       </c>
       <c r="H5" s="19">
-        <v>0.52585999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>34</v>
@@ -5321,7 +5596,7 @@
         <v>0.71599999999999997</v>
       </c>
       <c r="H6" s="19">
-        <v>0.15</v>
+        <v>0.42</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>34</v>
@@ -5423,17 +5698,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5442,6 +5717,257 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B841FE-83F0-4C19-B01B-0F9C28669C6D}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="H7" sqref="H7:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.49198500000000001</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.52585999999999999</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <f>-0.000217+0.05</f>
+        <v>4.9783000000000001E-2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.10768</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44121489-D11F-4FE4-835C-D7CEA13E7FEA}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5674,17 +6200,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="43" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5692,7 +6218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87769F25-0D9B-4A5D-A483-AACA58CC7443}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5923,267 +6449,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07675E27-4F23-45DF-B815-2A58E614CCF5}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F14" sqref="F14"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="19">
-        <v>-0.18698999999999999</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="H5" s="19">
-        <v>8.6370000000000002E-2</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="19">
-        <v>-1.342E-2</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0.15826999999999999</v>
-      </c>
-      <c r="H6" s="19">
-        <v>8.8069999999999996E-2</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <f>43.78*1000</f>
-        <v>43780</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FAA0CE-D84F-4ADA-AE74-3B4F789E783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46C32F-D801-4064-A63E-2137861E938B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="23130" windowHeight="12540" tabRatio="948" activeTab="5" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="29520" yWindow="1710" windowWidth="20550" windowHeight="13050" tabRatio="948" firstSheet="6" activeTab="8" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
@@ -21,20 +21,21 @@
     <sheet name="Sedan_Hamba_Mac_f" sheetId="26" r:id="rId6"/>
     <sheet name="Sedan_Hamba_f" sheetId="12" r:id="rId7"/>
     <sheet name="Sedan_Hamba_r" sheetId="13" r:id="rId8"/>
-    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="22" r:id="rId9"/>
-    <sheet name="Achilles_f" sheetId="18" r:id="rId10"/>
-    <sheet name="Achilles_r" sheetId="19" r:id="rId11"/>
-    <sheet name="AchillesPush_f" sheetId="23" r:id="rId12"/>
-    <sheet name="AchillesPush_r" sheetId="24" r:id="rId13"/>
-    <sheet name="Achilles_DW_f" sheetId="20" r:id="rId14"/>
-    <sheet name="Achilles_DW_r" sheetId="21" r:id="rId15"/>
-    <sheet name="No_Spring" sheetId="15" r:id="rId16"/>
-    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId17"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId18"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId19"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId20"/>
-    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId21"/>
-    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId22"/>
+    <sheet name="SUV_Landy_f" sheetId="27" r:id="rId9"/>
+    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="22" r:id="rId10"/>
+    <sheet name="Achilles_f" sheetId="18" r:id="rId11"/>
+    <sheet name="Achilles_r" sheetId="19" r:id="rId12"/>
+    <sheet name="AchillesPush_f" sheetId="23" r:id="rId13"/>
+    <sheet name="AchillesPush_r" sheetId="24" r:id="rId14"/>
+    <sheet name="Achilles_DW_f" sheetId="20" r:id="rId15"/>
+    <sheet name="Achilles_DW_r" sheetId="21" r:id="rId16"/>
+    <sheet name="No_Spring" sheetId="15" r:id="rId17"/>
+    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId18"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId19"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId20"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId21"/>
+    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId22"/>
+    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="43">
   <si>
     <t>Units</t>
   </si>
@@ -181,6 +182,9 @@
   <si>
     <t>Sedan_Hamba_Mac_Linear_A1</t>
   </si>
+  <si>
+    <t>SUV_Landy_Linear_A1</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -293,11 +297,33 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1292,17 +1318,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1311,6 +1337,255 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87769F25-0D9B-4A5D-A483-AACA58CC7443}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
+        <v>0.12</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>8.2799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
+    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07675E27-4F23-45DF-B815-2A58E614CCF5}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -1542,17 +1817,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="40" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="38" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1560,7 +1835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6819F1-CEED-4A60-B116-BA176ED148CB}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -1792,17 +2067,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="36" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1810,7 +2085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F153D3AE-46C7-4F34-AC73-2C191830CCFC}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2042,17 +2317,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2060,7 +2335,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A666DF0F-6AE0-4055-9B98-97F7038D423B}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2292,17 +2567,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2310,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF275A-B12B-4AB2-BD05-ACD618B3C10D}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2543,17 +2818,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2561,7 +2836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0AF0D6-3E7E-4BDA-8817-856CC0C9A380}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2794,17 +3069,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2812,7 +3087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32C537-D3E6-4C00-9A05-E96827E0CC18}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2949,12 +3224,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A9:B12">
-    <cfRule type="cellIs" dxfId="22" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:A14">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2962,7 +3237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3195,17 +3470,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3213,7 +3488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -3380,257 +3655,6 @@
       <c r="G8" s="14"/>
       <c r="H8" s="6">
         <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C07A9-B603-4832-87B3-F4F0D2D0838D}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F14" sqref="F14"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="20">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.62</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="20">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.68</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <v>5.5E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -3946,17 +3970,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="61" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3965,6 +3989,257 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C07A9-B603-4832-87B3-F4F0D2D0838D}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C768E2E8-49B1-4E2D-BDAC-17E912B3DA25}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4197,17 +4472,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4215,7 +4490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4448,17 +4723,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4466,7 +4741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4700,17 +4975,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4949,17 +5224,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5198,17 +5473,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5447,17 +5722,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5472,7 +5747,7 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F14" sqref="F14"/>
       <selection pane="topRight" activeCell="F14" sqref="F14"/>
@@ -5698,17 +5973,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6219,18 +6494,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87769F25-0D9B-4A5D-A483-AACA58CC7443}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D925D91A-EF8A-4D90-95BF-22FD4E1F34B3}">
   <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F14" sqref="F14"/>
       <selection pane="topRight" activeCell="F14" sqref="F14"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6286,7 +6561,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -6294,11 +6569,11 @@
         <v>8</v>
       </c>
       <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="11" t="s">
         <v>9</v>
       </c>
@@ -6315,14 +6590,14 @@
       <c r="E5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="20">
-        <v>0.12</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0.65</v>
+      <c r="F5" s="21">
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.50453999999999999</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.62</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>34</v>
@@ -6340,14 +6615,14 @@
       <c r="E6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="20">
-        <v>0.12</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.25</v>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.50453999999999999</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.5</v>
       </c>
       <c r="J6" s="13" t="s">
         <v>34</v>
@@ -6382,7 +6657,7 @@
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
-        <v>8.2799999999999999E-2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6448,18 +6723,18 @@
       <c r="H18" s="17"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
+++ b/Libraries/Vehicle/Springs/Spring/sm_car_data_Spring_Linear.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vtpVDG\Libraries\Vehicle\Springs\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Springs\Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D46C32F-D801-4064-A63E-2137861E938B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2A58C9-7ED9-4A26-A7E5-BC2524D6B0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29520" yWindow="1710" windowWidth="20550" windowHeight="13050" tabRatio="948" firstSheet="6" activeTab="8" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
+    <workbookView xWindow="29460" yWindow="3030" windowWidth="21600" windowHeight="11235" tabRatio="948" firstSheet="6" activeTab="17" xr2:uid="{3D91F562-0AFF-4B18-AFD7-69ED25E9BE04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="11" r:id="rId1"/>
@@ -21,21 +21,24 @@
     <sheet name="Sedan_Hamba_Mac_f" sheetId="26" r:id="rId6"/>
     <sheet name="Sedan_Hamba_f" sheetId="12" r:id="rId7"/>
     <sheet name="Sedan_Hamba_r" sheetId="13" r:id="rId8"/>
-    <sheet name="SUV_Landy_f" sheetId="27" r:id="rId9"/>
-    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="22" r:id="rId10"/>
-    <sheet name="Achilles_f" sheetId="18" r:id="rId11"/>
-    <sheet name="Achilles_r" sheetId="19" r:id="rId12"/>
-    <sheet name="AchillesPush_f" sheetId="23" r:id="rId13"/>
-    <sheet name="AchillesPush_r" sheetId="24" r:id="rId14"/>
-    <sheet name="Achilles_DW_f" sheetId="20" r:id="rId15"/>
-    <sheet name="Achilles_DW_r" sheetId="21" r:id="rId16"/>
-    <sheet name="No_Spring" sheetId="15" r:id="rId17"/>
-    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId18"/>
-    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId19"/>
-    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId20"/>
-    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId21"/>
-    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId22"/>
-    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId23"/>
+    <sheet name="SUV_Landy_TA2PR_f" sheetId="27" r:id="rId9"/>
+    <sheet name="SUV_Landy_DW_f" sheetId="30" r:id="rId10"/>
+    <sheet name="SUV_Landy_TA3_r" sheetId="29" r:id="rId11"/>
+    <sheet name="SUV_Landy_TA4Watts_r" sheetId="28" r:id="rId12"/>
+    <sheet name="Sedan_Hamba_TwistBeam_r" sheetId="22" r:id="rId13"/>
+    <sheet name="Achilles_f" sheetId="18" r:id="rId14"/>
+    <sheet name="Achilles_r" sheetId="19" r:id="rId15"/>
+    <sheet name="AchillesPush_f" sheetId="23" r:id="rId16"/>
+    <sheet name="AchillesPush_r" sheetId="24" r:id="rId17"/>
+    <sheet name="Achilles_DW_f" sheetId="20" r:id="rId18"/>
+    <sheet name="Achilles_DW_r" sheetId="21" r:id="rId19"/>
+    <sheet name="No_Spring" sheetId="15" r:id="rId20"/>
+    <sheet name="Bus_Makhulu_A1" sheetId="7" r:id="rId21"/>
+    <sheet name="Bus_Makhulu_A2" sheetId="8" r:id="rId22"/>
+    <sheet name="Bus_Makhulu_Axle3_A2" sheetId="16" r:id="rId23"/>
+    <sheet name="Bus_Makhulu_Axle3_A3" sheetId="17" r:id="rId24"/>
+    <sheet name="Trailer_Elula_f" sheetId="9" r:id="rId25"/>
+    <sheet name="Trailer_Thwala_f" sheetId="10" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="46">
   <si>
     <t>Units</t>
   </si>
@@ -183,7 +186,16 @@
     <t>Sedan_Hamba_Mac_Linear_A1</t>
   </si>
   <si>
-    <t>SUV_Landy_Linear_A1</t>
+    <t>SUV_Landy_TA2PR_Linear_A1</t>
+  </si>
+  <si>
+    <t>SUV_Landy_TA3_Linear_A2</t>
+  </si>
+  <si>
+    <t>SUV_Landy_TA4Watts_Linear_A2</t>
+  </si>
+  <si>
+    <t>SUV_Landy_DW_Linear_A1</t>
   </si>
 </sst>
 </file>
@@ -302,7 +314,70 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="77">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1318,17 +1393,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="65" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1337,6 +1412,759 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5813532A-0055-495A-92CC-4564E88CCAEA}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="19">
+        <v>-2.6557142857142869E-3</v>
+      </c>
+      <c r="G5" s="20">
+        <f>0.62-0.25</f>
+        <v>0.37</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.65</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="19">
+        <v>5.5166428571428582E-2</v>
+      </c>
+      <c r="G6" s="20">
+        <f>0.85-0.25</f>
+        <v>0.6</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.19</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2C4776-6841-4123-9B26-605C002DCD28}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="21">
+        <f>2.8-2.79</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.67633500000000002</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="21">
+        <f>2.8-2.79</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="46" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="45" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4E8D496-DF59-409E-A48B-66FD969D114E}">
+  <sheetPr>
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="21">
+        <f>2.8-2.79</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="G5" s="21">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="21">
+        <f>2.8-2.79</f>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0.48549999999999999</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.54</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87769F25-0D9B-4A5D-A483-AACA58CC7443}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -1585,7 +2413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07675E27-4F23-45DF-B815-2A58E614CCF5}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -1835,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F6819F1-CEED-4A60-B116-BA176ED148CB}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2085,7 +2913,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F153D3AE-46C7-4F34-AC73-2C191830CCFC}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2335,7 +3163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A666DF0F-6AE0-4055-9B98-97F7038D423B}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -2585,19 +3413,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1AF275A-B12B-4AB2-BD05-ACD618B3C10D}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F14" sqref="F14"/>
       <selection pane="topRight" activeCell="F14" sqref="F14"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2732,8 +3560,8 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15">
-        <f>43.78*10000/2/2/2/2</f>
-        <v>27362.5</v>
+        <f>43.78*10000/2/2/2/2*3</f>
+        <v>82087.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2750,8 +3578,8 @@
       </c>
       <c r="G8" s="14"/>
       <c r="H8" s="6">
-        <f>0.01*2*2*2*2.2</f>
-        <v>0.17600000000000002</v>
+        <f>0.01*2*2*2*2.2/3</f>
+        <v>5.8666666666666673E-2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2836,7 +3664,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0AF0D6-3E7E-4BDA-8817-856CC0C9A380}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
@@ -3080,658 +3908,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
     <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32C537-D3E6-4C00-9A05-E96827E0CC18}">
-  <sheetPr>
-    <tabColor theme="9" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F16" sqref="F16"/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="H14" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4 A9:B12">
-    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A14">
-    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F14" sqref="F14"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="20">
-        <f>-0.0022+0.02</f>
-        <v>1.78E-2</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.68</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0.73380000000000001</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="20">
-        <f>0.0457+0.02</f>
-        <v>6.5699999999999995E-2</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.74</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <v>6.5000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:J18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F14" sqref="F14"/>
-      <selection pane="topRight" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="15" width="6.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="20">
-        <f>-0.07</f>
-        <v>-7.0000000000000007E-2</v>
-      </c>
-      <c r="G5" s="20">
-        <v>0.62</v>
-      </c>
-      <c r="H5" s="20">
-        <v>0.73650000000000015</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="20">
-        <f>-0.0013-0.05</f>
-        <v>-5.1300000000000005E-2</v>
-      </c>
-      <c r="G6" s="20">
-        <v>0.68</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0.26040000000000008</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15">
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="6">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3970,17 +4146,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="64" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3989,6 +4165,658 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE32C537-D3E6-4C00-9A05-E96827E0CC18}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="H14" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4 A9:B12">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A14">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF29EA3D-CA4A-4411-BDB9-9A90AAE09859}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
+        <f>-0.0022+0.02</f>
+        <v>1.78E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.73380000000000001</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
+        <f>0.0457+0.02</f>
+        <v>6.5699999999999995E-2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.74</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4:A9">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:B16">
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08CC10D-6FA6-4F08-9D15-E6E1F180CE05}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="F14" sqref="F14"/>
+      <selection pane="topRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="15" width="6.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="20">
+        <f>-0.07</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="G5" s="20">
+        <v>0.62</v>
+      </c>
+      <c r="H5" s="20">
+        <v>0.73650000000000015</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="20">
+        <f>-0.0013-0.05</f>
+        <v>-5.1300000000000005E-2</v>
+      </c>
+      <c r="G6" s="20">
+        <v>0.68</v>
+      </c>
+      <c r="H6" s="20">
+        <v>0.26040000000000008</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="6">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="14"/>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A4 A5:B8 A13:B16">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:A18">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649C07A9-B603-4832-87B3-F4F0D2D0838D}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4239,7 +5067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C768E2E8-49B1-4E2D-BDAC-17E912B3DA25}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4490,7 +5318,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A39DE2-06C1-44E9-A918-9BFFD76A0F7B}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -4741,7 +5569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D9383-A18E-4DE0-B12B-C71D23B94F42}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
@@ -5224,17 +6052,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5473,17 +6301,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="58" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="57" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="56" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5722,17 +6550,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5973,17 +6801,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6224,17 +7052,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="49" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="47" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6475,17 +7303,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4 A5:B8 A13:B16">
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6500,12 +7328,12 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F14" sqref="F14"/>
       <selection pane="topRight" activeCell="F14" sqref="F14"/>
       <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6724,17 +7552,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A4:A9">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:A18">
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:B16">
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
